--- a/Technology/Software/DigitalOcean.xlsx
+++ b/Technology/Software/DigitalOcean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA1C9CB-8AFF-2341-842D-E123F9E14F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BFA360-8D97-654A-8662-A23DFF9FFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27700" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,6 +1012,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,12 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2237,11 +2237,11 @@
     <v>Powered by Refinitiv</v>
     <v>53.88</v>
     <v>23.375</v>
-    <v>2.3450000000000002</v>
-    <v>1.18</v>
-    <v>3.5318999999999996E-2</v>
-    <v>-0.15</v>
-    <v>-4.3369999999999997E-3</v>
+    <v>2.3239999999999998</v>
+    <v>-0.8</v>
+    <v>-2.2961999999999996E-2</v>
+    <v>-0.13</v>
+    <v>-3.8190000000000003E-3</v>
     <v>USD</v>
     <v>DigitalOcean Holdings, Inc. is a cloud computing platform offering on-demand infrastructure and platform tools for developers, start-ups and small-to-medium size businesses. The Company’s platform simplifies cloud computing, enabling its customers to rapidly accelerate productivity and agility. The Company offers mission-critical infrastructure solutions across compute, storage and networking, and also enables developers to extend the native capabilities of the Company’s cloud with fully managed application, container and database offerings. The Company offers Compute, Storage, Networking, developer tools and Managed Databases. Its products include Droplets, Spaces, Managed Kubernetes and Container Registry, Managed Databases, App Platform and others. Its customers use its platform across numerous industry verticals and for a range of use cases, such as Web and mobile applications, Website hosting, e-commerce, media and gaming, personal Web projects, and managed services, among others.</v>
     <v>1204</v>
@@ -2249,25 +2249,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Avenue Of The Americas, 10Th Floor, NEW YORK, NY, 10013 US</v>
-    <v>34.61</v>
+    <v>34.811799999999998</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.980856689064</v>
+    <v>45065.937500022657</v>
     <v>0</v>
-    <v>33.61</v>
-    <v>3353714000</v>
+    <v>33.54</v>
+    <v>3023178180</v>
     <v>DigitalOcean Holdings, Inc.</v>
     <v>DigitalOcean Holdings, Inc.</v>
-    <v>33.659999999999997</v>
+    <v>34.76</v>
     <v>0</v>
-    <v>33.409999999999997</v>
-    <v>34.590000000000003</v>
-    <v>34.44</v>
-    <v>96956160</v>
+    <v>34.840000000000003</v>
+    <v>34.04</v>
+    <v>33.909999999999997</v>
+    <v>88812520</v>
     <v>DOCN</v>
     <v>DigitalOcean Holdings, Inc. (XNYS:DOCN)</v>
-    <v>986063</v>
-    <v>1636830</v>
+    <v>1134648</v>
+    <v>1500930</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2855,10 +2855,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K79" sqref="K79"/>
+      <selection pane="bottomRight" activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3415,15 +3415,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>5.8191670628572219</v>
+        <v>5.2456407702638455</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-138.10954165465552</v>
+        <v>-124.49772186303176</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>44.754974311069596</v>
+        <v>40.344007206245415</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4783,10 +4783,10 @@
       <c r="F83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="60" t="s">
+      <c r="M83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="N83" s="61"/>
+      <c r="N83" s="63"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4807,10 +4807,10 @@
       <c r="F84" s="1">
         <v>5500000</v>
       </c>
-      <c r="M84" s="62" t="s">
+      <c r="M84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="N84" s="63"/>
+      <c r="N84" s="65"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5052,10 +5052,10 @@
       <c r="F93" s="1">
         <v>-124636000</v>
       </c>
-      <c r="M93" s="62" t="s">
+      <c r="M93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="N93" s="63"/>
+      <c r="N93" s="65"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="N95" s="39" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>2.3450000000000002</v>
+        <v>2.3239999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.14190225000000001</v>
+        <v>0.14099820000000002</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5182,10 +5182,10 @@
       <c r="F98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M98" s="62" t="s">
+      <c r="M98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="N98" s="63"/>
+      <c r="N98" s="65"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>0.32790076933266721</v>
+        <v>0.35116204192942535</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="N101" s="40" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3353714000</v>
+        <v>3023178180</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.67209923066733279</v>
+        <v>0.64883795807057465</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="N103" s="41">
         <f>N99+N101</f>
-        <v>4989909000</v>
+        <v>4659373180</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5341,10 +5341,10 @@
       <c r="F104" s="11">
         <v>151807000</v>
       </c>
-      <c r="M104" s="62" t="s">
+      <c r="M104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="N104" s="63"/>
+      <c r="N104" s="65"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>9.7046440425495553E-2</v>
+        <v>9.3277788429884934E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5444,7 +5444,7 @@
       <c r="J107" s="43"/>
       <c r="K107" s="46">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>2179700096.5412765</v>
+        <v>2300010541.6737881</v>
       </c>
       <c r="L107" s="47" t="s">
         <v>148</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K108" s="46">
         <f>K107+K106</f>
-        <v>2332909494.7372842</v>
+        <v>2453219939.8697958</v>
       </c>
       <c r="L108" s="47" t="s">
         <v>144</v>
@@ -5485,14 +5485,14 @@
       </c>
       <c r="N108" s="51">
         <f>N105</f>
-        <v>9.7046440425495553E-2</v>
+        <v>9.3277788429884934E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="64" t="s">
+      <c r="G109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="65"/>
+      <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G110" s="52" t="s">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="H110" s="40">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>1808701279.5845459</v>
+        <v>1914228539.9360747</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="H113" s="40">
         <f>H110+H111-H112</f>
-        <v>1036740279.5845461</v>
+        <v>1142267539.9360747</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="H115" s="55">
         <f>H113/H114</f>
-        <v>7.3113237408512592</v>
+        <v>8.0555255232150209</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="H116" s="56" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>34.590000000000003</v>
+        <v>34.04</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="H117" s="58">
         <f>H115/H116-1</f>
-        <v>-0.78862897540181387</v>
+        <v>-0.76335118909474087</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/DigitalOcean.xlsx
+++ b/Technology/Software/DigitalOcean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BFA360-8D97-654A-8662-A23DFF9FFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9742885-5658-9548-B768-7C1464C9FC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27700" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -549,19 +549,29 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Shares</t>
+    <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -888,12 +898,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -951,12 +970,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,6 +1024,18 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2237,37 +2262,34 @@
     <v>Powered by Refinitiv</v>
     <v>53.88</v>
     <v>23.375</v>
-    <v>2.3239999999999998</v>
-    <v>-0.8</v>
-    <v>-2.2961999999999996E-2</v>
-    <v>-0.13</v>
-    <v>-3.8190000000000003E-3</v>
+    <v>2.359</v>
+    <v>-2.34</v>
+    <v>-5.6548999999999995E-2</v>
     <v>USD</v>
-    <v>DigitalOcean Holdings, Inc. is a cloud computing platform offering on-demand infrastructure and platform tools for developers, start-ups and small-to-medium size businesses. The Company’s platform simplifies cloud computing, enabling its customers to rapidly accelerate productivity and agility. The Company offers mission-critical infrastructure solutions across compute, storage and networking, and also enables developers to extend the native capabilities of the Company’s cloud with fully managed application, container and database offerings. The Company offers Compute, Storage, Networking, developer tools and Managed Databases. Its products include Droplets, Spaces, Managed Kubernetes and Container Registry, Managed Databases, App Platform and others. Its customers use its platform across numerous industry verticals and for a range of use cases, such as Web and mobile applications, Website hosting, e-commerce, media and gaming, personal Web projects, and managed services, among others.</v>
+    <v>DigitalOcean Holdings, Inc. is a cloud computing platform offering on-demand infrastructure, platform and software tools for startups and small and medium-sized businesses (SMBs). The Company helps developers at startups and SMBs build, deploy, and scale, whether creating a digital presence or building digital products. It offers mission-critical solutions across Infrastructure-as-a-Service (IaaS), including its Droplet virtual machines, storage, and networking offerings; Platform-as-a-Service (PaaS), including its Managed Database and Managed Kubernetes offerings; and Software-as-a-Service (SaaS), including its Managed Hosting and Marketplace offerings. Its users include software engineers, researchers, data scientists, system administrators, students, and hobbyists. Its customers use its platform across numerous industry verticals and for a range of use cases, such as Web and mobile applications, Website hosting, media and gaming, personal Web projects, managed services, and others.</v>
     <v>1204</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Avenue Of The Americas, 10Th Floor, NEW YORK, NY, 10013 US</v>
-    <v>34.811799999999998</v>
+    <v>40.07</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.937500022657</v>
+    <v>45099.976125046094</v>
     <v>0</v>
-    <v>33.54</v>
-    <v>3023178180</v>
+    <v>38.6</v>
+    <v>3467240780</v>
     <v>DigitalOcean Holdings, Inc.</v>
     <v>DigitalOcean Holdings, Inc.</v>
-    <v>34.76</v>
+    <v>39.200000000000003</v>
     <v>0</v>
-    <v>34.840000000000003</v>
-    <v>34.04</v>
-    <v>33.909999999999997</v>
+    <v>41.38</v>
+    <v>39.04</v>
     <v>88812520</v>
     <v>DOCN</v>
     <v>DigitalOcean Holdings, Inc. (XNYS:DOCN)</v>
-    <v>1134648</v>
-    <v>1500930</v>
+    <v>524</v>
+    <v>1547929</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2299,8 +2321,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2321,7 +2341,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2338,7 +2357,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2349,16 +2368,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2424,19 +2440,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2481,9 +2491,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2491,9 +2498,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2855,10 +2859,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J96" sqref="J96"/>
+      <selection pane="bottomRight" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2961,16 +2965,16 @@
         <v>708500000</v>
       </c>
       <c r="H3" s="29">
-        <v>841200000</v>
+        <v>836100000</v>
       </c>
       <c r="I3" s="29">
-        <v>977800000</v>
+        <v>963400000</v>
       </c>
       <c r="J3" s="29">
-        <v>1036000000</v>
+        <v>1129000000</v>
       </c>
       <c r="K3" s="29">
-        <v>1171000000</v>
+        <v>1329000000</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>109</v>
@@ -3012,19 +3016,19 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18729710656316167</v>
+        <v>0.18009880028228653</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.16238706609605336</v>
+        <v>0.15225451501016618</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>5.9521374514215575E-2</v>
+        <v>0.17189121860078882</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13030888030888033</v>
+        <v>0.17714791851195755</v>
       </c>
       <c r="L4" s="17">
         <f>(F4+E4+D4)/3</f>
@@ -3413,20 +3417,20 @@
         <f>(F35+E35+D35+C35+B35)/5</f>
         <v>3.0254490900453644E-2</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="64">
         <f>N101/F3</f>
-        <v>5.2456407702638455</v>
-      </c>
-      <c r="N16" s="31">
+        <v>6.0161520469459777</v>
+      </c>
+      <c r="N16" s="64">
         <f>N101/F28</f>
-        <v>-124.49772186303176</v>
-      </c>
-      <c r="O16" s="32">
+        <v>-142.7846962895853</v>
+      </c>
+      <c r="O16" s="65">
         <f>N101/F106</f>
-        <v>40.344007206245415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>46.269977714018815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3446,7 +3450,7 @@
         <v>8396000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3468,8 +3472,17 @@
       <c r="L18" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="M18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3488,12 +3501,39 @@
       <c r="F19" s="10">
         <v>86221000</v>
       </c>
-      <c r="L19" s="33">
+      <c r="G19" s="61">
+        <v>271700000</v>
+      </c>
+      <c r="H19" s="61">
+        <v>341600000</v>
+      </c>
+      <c r="I19" s="61">
+        <v>397100000</v>
+      </c>
+      <c r="J19" s="61">
+        <v>458900000</v>
+      </c>
+      <c r="K19" s="61">
+        <v>535600000</v>
+      </c>
+      <c r="L19" s="31">
         <f>F40-F56-F61</f>
         <v>-771961000</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="64">
+        <f>N101/G3</f>
+        <v>4.89377668313338</v>
+      </c>
+      <c r="N19" s="64">
+        <f>N101/G28</f>
+        <v>19.435206165919283</v>
+      </c>
+      <c r="O19" s="65">
+        <f>N101/G105</f>
+        <v>23.699526862611073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -3514,8 +3554,28 @@
         <f t="shared" ref="F20" si="3">(F19/E19)-1</f>
         <v>0.1664885341270379</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G20" s="16">
+        <f t="shared" ref="G20" si="4">(G19/F19)-1</f>
+        <v>2.1512044629498615</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" ref="H20" si="5">(H19/G19)-1</f>
+        <v>0.25726904674273099</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" ref="I20" si="6">(I19/H19)-1</f>
+        <v>0.1624707259953162</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" ref="J20" si="7">(J19/I19)-1</f>
+        <v>0.15562830521279269</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="8">(K19/J19)-1</f>
+        <v>0.16713881019830024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3534,8 +3594,28 @@
       <c r="F21" s="2">
         <v>0.14960000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G21" s="62">
+        <f>G19/G3</f>
+        <v>0.38348623853211011</v>
+      </c>
+      <c r="H21" s="62">
+        <f t="shared" ref="H21:K21" si="9">H19/H3</f>
+        <v>0.40856356895108242</v>
+      </c>
+      <c r="I21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.41218600788872745</v>
+      </c>
+      <c r="J21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.40646589902568647</v>
+      </c>
+      <c r="K21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.40300978179082014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3555,7 +3635,7 @@
         <v>-26219000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3575,7 +3655,7 @@
         <v>-4.5499999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3595,7 +3675,7 @@
         <v>1812000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3615,7 +3695,7 @@
         <v>-24407000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3635,7 +3715,7 @@
         <v>-4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3655,7 +3735,7 @@
         <v>-124000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3674,8 +3754,23 @@
       <c r="F28" s="11">
         <v>-24283000</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="58">
+        <v>178400000</v>
+      </c>
+      <c r="H28" s="58">
+        <v>223500000</v>
+      </c>
+      <c r="I28" s="58">
+        <v>272200000</v>
+      </c>
+      <c r="J28" s="58">
+        <v>357800000</v>
+      </c>
+      <c r="K28" s="58">
+        <v>431200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -3693,11 +3788,31 @@
         <v>-0.55235493940506797</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29" si="10">(F28/E28)-1</f>
         <v>0.24509049889760548</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G29" s="16">
+        <f t="shared" ref="G29" si="11">(G28/F28)-1</f>
+        <v>-8.3467034550920403</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" ref="H29" si="12">(H28/G28)-1</f>
+        <v>0.25280269058295968</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" ref="I29" si="13">(I28/H28)-1</f>
+        <v>0.21789709172259508</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" ref="J29" si="14">(J28/I28)-1</f>
+        <v>0.31447465099191763</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" ref="K29" si="15">(K28/J28)-1</f>
+        <v>0.20514253773057578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3716,8 +3831,28 @@
       <c r="F30" s="2">
         <v>-4.2099999999999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G30" s="59">
+        <f>G28/G3</f>
+        <v>0.25179957657021879</v>
+      </c>
+      <c r="H30" s="59">
+        <f t="shared" ref="H30:K30" si="16">H28/H3</f>
+        <v>0.26731252242554721</v>
+      </c>
+      <c r="I30" s="59">
+        <f t="shared" si="16"/>
+        <v>0.28254100062279425</v>
+      </c>
+      <c r="J30" s="59">
+        <f t="shared" si="16"/>
+        <v>0.31691762621789193</v>
+      </c>
+      <c r="K30" s="59">
+        <f t="shared" si="16"/>
+        <v>0.32445447705041386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3736,8 +3871,23 @@
       <c r="F31" s="12">
         <v>-0.24</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G31" s="60">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H31" s="60">
+        <v>2.52</v>
+      </c>
+      <c r="I31" s="60">
+        <v>3.06</v>
+      </c>
+      <c r="J31" s="60">
+        <v>4.03</v>
+      </c>
+      <c r="K31" s="60">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3807,15 +3957,15 @@
         <v>0</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="17">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.9941466773786293E-2</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.1330987728481935E-2</v>
       </c>
     </row>
@@ -4704,23 +4854,23 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:F80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:F80" si="18">B79/B3</f>
         <v>5.9895833333333336E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.3172358853007768E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.2518374269740564E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.14368316295696529</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.18362824948553066</v>
       </c>
     </row>
@@ -4783,10 +4933,10 @@
       <c r="F83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="62" t="s">
+      <c r="M83" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="N83" s="63"/>
+      <c r="N83" s="69"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4807,10 +4957,10 @@
       <c r="F84" s="1">
         <v>5500000</v>
       </c>
-      <c r="M84" s="64" t="s">
+      <c r="M84" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="N84" s="65"/>
+      <c r="N84" s="71"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4912,10 +5062,10 @@
       <c r="F88" s="1">
         <v>0</v>
       </c>
-      <c r="M88" s="34" t="s">
+      <c r="M88" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="N88" s="35">
+      <c r="N88" s="33">
         <f>N85/(N86+N87)</f>
         <v>5.1314177099917799E-3</v>
       </c>
@@ -4925,23 +5075,23 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:F89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:F89" si="19">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.22650684499989499</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M89" s="24" t="s">
@@ -4998,10 +5148,10 @@
       <c r="F91" s="1">
         <v>-1696740000</v>
       </c>
-      <c r="M91" s="34" t="s">
+      <c r="M91" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="N91" s="35">
+      <c r="N91" s="33">
         <f>N89/N90</f>
         <v>5.080509689843078E-3</v>
       </c>
@@ -5025,10 +5175,10 @@
       <c r="F92" s="1">
         <v>978388000</v>
       </c>
-      <c r="M92" s="36" t="s">
+      <c r="M92" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="N92" s="37">
+      <c r="N92" s="35">
         <f>N88*(1-N91)</f>
         <v>5.1053474925935342E-3</v>
       </c>
@@ -5052,10 +5202,10 @@
       <c r="F93" s="1">
         <v>-124636000</v>
       </c>
-      <c r="M93" s="64" t="s">
+      <c r="M93" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="N93" s="65"/>
+      <c r="N93" s="71"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5079,7 +5229,7 @@
       <c r="M94" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="N94" s="38">
+      <c r="N94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -5105,9 +5255,9 @@
       <c r="M95" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="N95" s="39" cm="1">
+      <c r="N95" s="37" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>2.3239999999999998</v>
+        <v>2.359</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5132,7 +5282,7 @@
       <c r="M96" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="N96" s="38">
+      <c r="N96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5155,12 +5305,12 @@
       <c r="F97" s="1">
         <v>-600000000</v>
       </c>
-      <c r="M97" s="36" t="s">
+      <c r="M97" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="N97" s="37">
+      <c r="N97" s="35">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.14099820000000002</v>
+        <v>0.14250495000000002</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5182,10 +5332,10 @@
       <c r="F98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M98" s="64" t="s">
+      <c r="M98" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="N98" s="65"/>
+      <c r="N98" s="71"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5233,12 +5383,12 @@
       <c r="F100" s="10">
         <v>-610363000</v>
       </c>
-      <c r="M100" s="34" t="s">
+      <c r="M100" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="N100" s="35">
+      <c r="N100" s="33">
         <f>N99/N103</f>
-        <v>0.35116204192942535</v>
+        <v>0.32060656203652671</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5263,9 +5413,9 @@
       <c r="M101" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="N101" s="40" cm="1">
+      <c r="N101" s="38" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3023178180</v>
+        <v>3467240780</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5287,12 +5437,12 @@
       <c r="F102" s="10">
         <v>-1563618000</v>
       </c>
-      <c r="M102" s="34" t="s">
+      <c r="M102" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="N102" s="35">
+      <c r="N102" s="33">
         <f>N101/N103</f>
-        <v>0.64883795807057465</v>
+        <v>0.67939343796347329</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5314,12 +5464,12 @@
       <c r="F103" s="1">
         <v>1715425000</v>
       </c>
-      <c r="M103" s="36" t="s">
+      <c r="M103" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="N103" s="41">
+      <c r="N103" s="39">
         <f>N99+N101</f>
-        <v>4659373180</v>
+        <v>5103435780</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5341,10 +5491,10 @@
       <c r="F104" s="11">
         <v>151807000</v>
       </c>
-      <c r="M104" s="64" t="s">
+      <c r="M104" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="N104" s="65"/>
+      <c r="N104" s="71"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5367,18 +5517,28 @@
         <f>(F106/E106)-1</f>
         <v>2.12034145325838</v>
       </c>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
+      <c r="G105" s="63">
+        <v>146300000</v>
+      </c>
+      <c r="H105" s="63">
+        <v>187100000</v>
+      </c>
+      <c r="I105" s="63">
+        <v>218800000</v>
+      </c>
+      <c r="J105" s="63">
+        <v>258600000</v>
+      </c>
+      <c r="K105" s="63">
+        <v>302300000</v>
+      </c>
       <c r="L105" s="15"/>
       <c r="M105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>9.3277788429884934E-2</v>
+        <v>9.8453735814915094E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5400,35 +5560,35 @@
       <c r="F106" s="1">
         <v>74935000</v>
       </c>
-      <c r="G106" s="42">
+      <c r="G106" s="40">
         <f>F106*(1+$N$106)</f>
-        <v>86457933.449862286</v>
-      </c>
-      <c r="H106" s="42">
-        <f t="shared" ref="H106:K106" si="8">G106*(1+$N$106)</f>
-        <v>99752775.824658915</v>
-      </c>
-      <c r="I106" s="42">
-        <f t="shared" si="8"/>
-        <v>115091997.78057505</v>
-      </c>
-      <c r="J106" s="42">
-        <f t="shared" si="8"/>
-        <v>132789968.43563962</v>
-      </c>
-      <c r="K106" s="42">
-        <f t="shared" si="8"/>
-        <v>153209398.19600779</v>
-      </c>
-      <c r="L106" s="43" t="s">
+        <v>88584259.409381598</v>
+      </c>
+      <c r="H106" s="40">
+        <f t="shared" ref="H106:K106" si="20">G106*(1+$N$106)</f>
+        <v>104719703.94486704</v>
+      </c>
+      <c r="I106" s="40">
+        <f t="shared" si="20"/>
+        <v>123794187.22260284</v>
+      </c>
+      <c r="J106" s="40">
+        <f t="shared" si="20"/>
+        <v>146343049.2333436</v>
+      </c>
+      <c r="K106" s="40">
+        <f t="shared" si="20"/>
+        <v>172999141.06954578</v>
+      </c>
+      <c r="L106" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="M106" s="44" t="s">
+      <c r="M106" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="N106" s="45">
+      <c r="N106" s="43">
         <f>(SUM(G4:K4)/5)</f>
-        <v>0.15377238206261792</v>
+        <v>0.18214798704719554</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5438,139 +5598,139 @@
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="46">
-        <f>K106*(1+N107)/(N108-N107)</f>
-        <v>2300010541.6737881</v>
-      </c>
-      <c r="L107" s="47" t="s">
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="44">
+        <f>K105*(1+N107)/(N108-N107)</f>
+        <v>4218403551.0564475</v>
+      </c>
+      <c r="L107" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="M107" s="48" t="s">
+      <c r="M107" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="N107" s="49">
+      <c r="N107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="46">
-        <f t="shared" ref="G108:I108" si="9">G107+G106</f>
-        <v>86457933.449862286</v>
-      </c>
-      <c r="H108" s="46">
-        <f t="shared" si="9"/>
-        <v>99752775.824658915</v>
-      </c>
-      <c r="I108" s="46">
-        <f t="shared" si="9"/>
-        <v>115091997.78057505</v>
-      </c>
-      <c r="J108" s="46">
+      <c r="G108" s="44">
+        <f t="shared" ref="G108:I108" si="21">G107+G106</f>
+        <v>88584259.409381598</v>
+      </c>
+      <c r="H108" s="44">
+        <f t="shared" si="21"/>
+        <v>104719703.94486704</v>
+      </c>
+      <c r="I108" s="44">
+        <f t="shared" si="21"/>
+        <v>123794187.22260284</v>
+      </c>
+      <c r="J108" s="44">
         <f>J107+J106</f>
-        <v>132789968.43563962</v>
-      </c>
-      <c r="K108" s="46">
-        <f>K107+K106</f>
-        <v>2453219939.8697958</v>
-      </c>
-      <c r="L108" s="47" t="s">
+        <v>146343049.2333436</v>
+      </c>
+      <c r="K108" s="44">
+        <f>K107+K105</f>
+        <v>4520703551.056448</v>
+      </c>
+      <c r="L108" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M108" s="50" t="s">
+      <c r="M108" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="N108" s="51">
+      <c r="N108" s="49">
         <f>N105</f>
-        <v>9.3277788429884934E-2</v>
+        <v>9.8453735814915094E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="60" t="s">
+      <c r="G109" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="61"/>
+      <c r="H109" s="67"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="52" t="s">
+      <c r="G110" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="H110" s="40">
+      <c r="H110" s="38">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>1914228539.9360747</v>
+        <v>3188167186.7069249</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="52" t="s">
+      <c r="G111" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="H111" s="40">
+      <c r="H111" s="38">
         <f>F40</f>
         <v>864234000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="52" t="s">
+      <c r="G112" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="H112" s="40">
+      <c r="H112" s="38">
         <f>N99</f>
         <v>1636195000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="52" t="s">
+      <c r="G113" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="H113" s="40">
+      <c r="H113" s="38">
         <f>H110+H111-H112</f>
-        <v>1142267539.9360747</v>
+        <v>2416206186.7069249</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="52" t="s">
+      <c r="G114" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="H114" s="53">
-        <f>F34*(1+(5*F35))</f>
-        <v>141799257.74478674</v>
+      <c r="H114" s="51" cm="1">
+        <f t="array" ref="H114">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>88812520</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="54" t="s">
+      <c r="G115" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="H115" s="55">
+      <c r="H115" s="53">
         <f>H113/H114</f>
-        <v>8.0555255232150209</v>
+        <v>27.205693371913384</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="52" t="s">
+      <c r="G116" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="H116" s="56" cm="1">
+      <c r="H116" s="54" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>34.04</v>
+        <v>39.04</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="57" t="s">
+      <c r="G117" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="H117" s="58">
+      <c r="H117" s="56">
         <f>H115/H116-1</f>
-        <v>-0.76335118909474087</v>
+        <v>-0.30313285420303826</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="57" t="s">
+      <c r="G118" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="59" t="str">
+      <c r="H118" s="57" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5596,7 +5756,7 @@
     <hyperlink ref="E74" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1582961/000158296122000010/0001582961-22-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F36" r:id="rId10" tooltip="https://www.sec.gov/Archives/edgar/data/1582961/000158296123000009/0001582961-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1582961/000158296123000009/0001582961-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G1" r:id="rId12" display="https://finbox.com/NASDAQGS:DOCN/explorer/revenue_proj" xr:uid="{420E23AD-CCD6-3E42-8058-B00129E17D0C}"/>
+    <hyperlink ref="G1" r:id="rId12" display="https://finbox.com/NYSE:DOCN/explorer/revenue_proj" xr:uid="{420E23AD-CCD6-3E42-8058-B00129E17D0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId13"/>

--- a/Technology/Software/DigitalOcean.xlsx
+++ b/Technology/Software/DigitalOcean.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9742885-5658-9548-B768-7C1464C9FC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1ADAD1-8E41-A44C-A3DB-22BA549AF36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27700" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -559,19 +553,41 @@
   </si>
   <si>
     <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -734,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -871,19 +887,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -912,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -957,14 +960,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -973,39 +968,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1029,7 +996,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1037,24 +1004,61 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,20 +1109,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>DOCN</a:t>
+              <a:t>DigitalOcean</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.45773363593175259"/>
-          <c:y val="1.8746338605741066E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1152,10 +1148,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7473896822331042E-2"/>
-          <c:y val="0.11606326889279439"/>
-          <c:w val="0.87694297373077112"/>
-          <c:h val="0.76707618929004695"/>
+          <c:x val="8.7979947506561684E-2"/>
+          <c:y val="0.1514440533642972"/>
+          <c:w val="0.83868671916010495"/>
+          <c:h val="0.65540621938386734"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1209,6 +1205,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$F$3</c:f>
@@ -1235,7 +1255,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A675-784C-BD4F-0AC09C90C8C6}"/>
+              <c16:uniqueId val="{00000000-8A27-2642-AB8B-24AE592D2363}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1244,11 +1264,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1286,33 +1306,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$F$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23949000</c:v>
+                  <c:v>-35999000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32840000</c:v>
+                  <c:v>-40390000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46527000</c:v>
+                  <c:v>-43568000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73915000</c:v>
+                  <c:v>-19503000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86221000</c:v>
+                  <c:v>-24283000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A675-784C-BD4F-0AC09C90C8C6}"/>
+              <c16:uniqueId val="{00000001-8A27-2642-AB8B-24AE592D2363}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1321,11 +1365,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1363,9 +1407,33 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$F$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$F$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1389,7 +1457,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A675-784C-BD4F-0AC09C90C8C6}"/>
+              <c16:uniqueId val="{00000002-8A27-2642-AB8B-24AE592D2363}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1403,11 +1471,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="321647247"/>
-        <c:axId val="314799695"/>
+        <c:axId val="757205951"/>
+        <c:axId val="757207951"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="321647247"/>
+        <c:axId val="757205951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1503,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1447,7 +1515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314799695"/>
+        <c:crossAx val="757207951"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1455,7 +1523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314799695"/>
+        <c:axId val="757207951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321647247"/>
+        <c:crossAx val="757205951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1521,10 +1589,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34834772530679875"/>
-          <c:y val="0.91915992047567008"/>
-          <c:w val="0.30330444518106042"/>
-          <c:h val="4.8033986964283244E-2"/>
+          <c:x val="0.34313574803149599"/>
+          <c:y val="0.8725084364454444"/>
+          <c:w val="0.31639517060367456"/>
+          <c:h val="6.2975434522297619E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2104,22 +2172,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>1555750</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB518A0-4B76-8271-587C-9FF601DE5CA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776C0B60-7D4A-FB13-374A-E445C2896B5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,6 +2206,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2859,10 +2981,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E115" sqref="E115"/>
+      <selection pane="bottomRight" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2891,19 +3013,19 @@
       <c r="F1" s="8">
         <v>2022</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="24">
         <v>2023</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>2024</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2025</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="24">
         <v>2026</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -2912,28 +3034,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -2961,37 +3083,37 @@
       <c r="F3" s="1">
         <v>576322000</v>
       </c>
-      <c r="G3" s="29">
-        <v>708500000</v>
-      </c>
-      <c r="H3" s="29">
+      <c r="G3" s="25">
+        <v>707000000</v>
+      </c>
+      <c r="H3" s="25">
         <v>836100000</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="25">
         <v>963400000</v>
       </c>
-      <c r="J3" s="29">
-        <v>1129000000</v>
-      </c>
-      <c r="K3" s="29">
-        <v>1329000000</v>
+      <c r="J3" s="25">
+        <v>1116000000</v>
+      </c>
+      <c r="K3" s="25">
+        <v>1314000000</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3012,11 +3134,11 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22934748283077866</v>
+        <v>0.2267447711522379</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18009880028228653</v>
+        <v>0.1826025459688827</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
@@ -3024,11 +3146,11 @@
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.17189121860078882</v>
+        <v>0.15839734274444672</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.17714791851195755</v>
+        <v>0.17741935483870974</v>
       </c>
       <c r="L4" s="17">
         <f>(F4+E4+D4)/3</f>
@@ -3043,7 +3165,7 @@
         <v>-7.6193866073255803E-2</v>
       </c>
       <c r="O4" s="17">
-        <f>(F105+E105+D105)/3</f>
+        <f>(F106+E106+D106)/3</f>
         <v>0.33114611230401914</v>
       </c>
       <c r="T4" s="16"/>
@@ -3104,16 +3226,16 @@
         <v>364395000</v>
       </c>
       <c r="L6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3148,7 +3270,7 @@
         <v>-4.2099999999999999E-2</v>
       </c>
       <c r="O7" s="21">
-        <f>F106/F3</f>
+        <f>F107/F3</f>
         <v>0.13002279975430403</v>
       </c>
     </row>
@@ -3174,7 +3296,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3199,16 +3321,16 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="L9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3244,7 +3366,7 @@
       </c>
       <c r="O10" s="21">
         <f>F89</f>
-        <v>0</v>
+        <v>0.21626104851107542</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3287,21 +3409,21 @@
         <v>246729000</v>
       </c>
       <c r="L12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3347,19 +3469,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3382,16 +3504,16 @@
         <v>390614000</v>
       </c>
       <c r="L15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3413,20 +3535,20 @@
       <c r="F16" s="1">
         <v>602541000</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="26">
         <f>(F35+E35+D35+C35+B35)/5</f>
         <v>3.0254490900453644E-2</v>
       </c>
-      <c r="M16" s="64">
+      <c r="M16" s="46">
         <f>N101/F3</f>
         <v>6.0161520469459777</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="46">
         <f>N101/F28</f>
         <v>-142.7846962895853</v>
       </c>
-      <c r="O16" s="65">
-        <f>N101/F106</f>
+      <c r="O16" s="47">
+        <f>N101/F107</f>
         <v>46.269977714018815</v>
       </c>
     </row>
@@ -3470,16 +3592,16 @@
         <v>102232000</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3501,41 +3623,41 @@
       <c r="F19" s="10">
         <v>86221000</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="43">
         <v>271700000</v>
       </c>
-      <c r="H19" s="61">
-        <v>341600000</v>
-      </c>
-      <c r="I19" s="61">
-        <v>397100000</v>
-      </c>
-      <c r="J19" s="61">
-        <v>458900000</v>
-      </c>
-      <c r="K19" s="61">
-        <v>535600000</v>
-      </c>
-      <c r="L19" s="31">
+      <c r="H19" s="43">
+        <v>340300000</v>
+      </c>
+      <c r="I19" s="43">
+        <v>391600000</v>
+      </c>
+      <c r="J19" s="43">
+        <v>428000000</v>
+      </c>
+      <c r="K19" s="43">
+        <v>492000000</v>
+      </c>
+      <c r="L19" s="27">
         <f>F40-F56-F61</f>
         <v>-771961000</v>
       </c>
-      <c r="M19" s="64">
+      <c r="M19" s="46">
         <f>N101/G3</f>
-        <v>4.89377668313338</v>
-      </c>
-      <c r="N19" s="64">
+        <v>4.9041595190947662</v>
+      </c>
+      <c r="N19" s="46">
         <f>N101/G28</f>
-        <v>19.435206165919283</v>
-      </c>
-      <c r="O19" s="65">
+        <v>19.467943739472208</v>
+      </c>
+      <c r="O19" s="47">
         <f>N101/G105</f>
-        <v>23.699526862611073</v>
+        <v>-118.78505680183082</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3560,22 +3682,22 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" ref="H20" si="5">(H19/G19)-1</f>
-        <v>0.25726904674273099</v>
+        <v>0.25248435774751554</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" ref="I20" si="6">(I19/H19)-1</f>
-        <v>0.1624707259953162</v>
+        <v>0.15074933881868935</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" ref="J20" si="7">(J19/I19)-1</f>
-        <v>0.15562830521279269</v>
+        <v>9.2951991828396308E-2</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="8">(K19/J19)-1</f>
-        <v>0.16713881019830024</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+        <v>0.14953271028037385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3594,25 +3716,31 @@
       <c r="F21" s="2">
         <v>0.14960000000000001</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="44">
         <f>G19/G3</f>
-        <v>0.38348623853211011</v>
-      </c>
-      <c r="H21" s="62">
+        <v>0.38429985855728432</v>
+      </c>
+      <c r="H21" s="44">
         <f t="shared" ref="H21:K21" si="9">H19/H3</f>
-        <v>0.40856356895108242</v>
-      </c>
-      <c r="I21" s="62">
+        <v>0.4070087310130367</v>
+      </c>
+      <c r="I21" s="44">
         <f t="shared" si="9"/>
-        <v>0.41218600788872745</v>
-      </c>
-      <c r="J21" s="62">
+        <v>0.4064770604110442</v>
+      </c>
+      <c r="J21" s="44">
         <f t="shared" si="9"/>
-        <v>0.40646589902568647</v>
-      </c>
-      <c r="K21" s="62">
+        <v>0.38351254480286739</v>
+      </c>
+      <c r="K21" s="44">
         <f t="shared" si="9"/>
-        <v>0.40300978179082014</v>
+        <v>0.37442922374429222</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3634,6 +3762,14 @@
       <c r="F22" s="10">
         <v>-26219000</v>
       </c>
+      <c r="N22" s="70">
+        <f>F98/N101*-1</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="71">
+        <f>F107/N101</f>
+        <v>2.1612286182213166E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3754,25 +3890,25 @@
       <c r="F28" s="11">
         <v>-24283000</v>
       </c>
-      <c r="G28" s="58">
-        <v>178400000</v>
-      </c>
-      <c r="H28" s="58">
+      <c r="G28" s="40">
+        <v>178100000</v>
+      </c>
+      <c r="H28" s="40">
         <v>223500000</v>
       </c>
-      <c r="I28" s="58">
-        <v>272200000</v>
-      </c>
-      <c r="J28" s="58">
-        <v>357800000</v>
-      </c>
-      <c r="K28" s="58">
-        <v>431200000</v>
+      <c r="I28" s="40">
+        <v>269100000</v>
+      </c>
+      <c r="J28" s="40">
+        <v>349000000</v>
+      </c>
+      <c r="K28" s="40">
+        <v>420100000</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3793,23 +3929,23 @@
       </c>
       <c r="G29" s="16">
         <f t="shared" ref="G29" si="11">(G28/F28)-1</f>
-        <v>-8.3467034550920403</v>
+        <v>-8.3343491331384101</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" ref="H29" si="12">(H28/G28)-1</f>
-        <v>0.25280269058295968</v>
+        <v>0.25491297024143744</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" ref="I29" si="13">(I28/H28)-1</f>
-        <v>0.21789709172259508</v>
+        <v>0.204026845637584</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" ref="J29" si="14">(J28/I28)-1</f>
-        <v>0.31447465099191763</v>
+        <v>0.2969156447417316</v>
       </c>
       <c r="K29" s="16">
         <f t="shared" ref="K29" si="15">(K28/J28)-1</f>
-        <v>0.20514253773057578</v>
+        <v>0.20372492836676215</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3831,25 +3967,25 @@
       <c r="F30" s="2">
         <v>-4.2099999999999999E-2</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="41">
         <f>G28/G3</f>
-        <v>0.25179957657021879</v>
-      </c>
-      <c r="H30" s="59">
+        <v>0.2519094766619519</v>
+      </c>
+      <c r="H30" s="41">
         <f t="shared" ref="H30:K30" si="16">H28/H3</f>
         <v>0.26731252242554721</v>
       </c>
-      <c r="I30" s="59">
+      <c r="I30" s="41">
         <f t="shared" si="16"/>
-        <v>0.28254100062279425</v>
-      </c>
-      <c r="J30" s="59">
+        <v>0.27932323022628192</v>
+      </c>
+      <c r="J30" s="41">
         <f t="shared" si="16"/>
-        <v>0.31691762621789193</v>
-      </c>
-      <c r="K30" s="59">
+        <v>0.31272401433691754</v>
+      </c>
+      <c r="K30" s="41">
         <f t="shared" si="16"/>
-        <v>0.32445447705041386</v>
+        <v>0.31971080669710805</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3871,20 +4007,20 @@
       <c r="F31" s="12">
         <v>-0.24</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="42">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H31" s="60">
-        <v>2.52</v>
-      </c>
-      <c r="I31" s="60">
-        <v>3.06</v>
-      </c>
-      <c r="J31" s="60">
-        <v>4.03</v>
-      </c>
-      <c r="K31" s="60">
-        <v>4.8600000000000003</v>
+      <c r="H31" s="42">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I31" s="42">
+        <v>3.04</v>
+      </c>
+      <c r="J31" s="42">
+        <v>3.94</v>
+      </c>
+      <c r="K31" s="42">
+        <v>4.74</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3949,7 +4085,7 @@
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3974,19 +4110,19 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -3994,19 +4130,19 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4014,7 +4150,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>32906000</v>
@@ -4034,16 +4170,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>723462000</v>
@@ -4054,7 +4190,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>32906000</v>
@@ -4074,7 +4210,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>23982000</v>
@@ -4094,19 +4230,19 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4114,7 +4250,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>3736000</v>
@@ -4134,7 +4270,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>60624000</v>
@@ -4154,7 +4290,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>205916000</v>
@@ -4174,7 +4310,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>2674000</v>
@@ -4194,7 +4330,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>29835000</v>
@@ -4214,7 +4350,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>32509000</v>
@@ -4234,19 +4370,19 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4254,7 +4390,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1">
         <v>129000</v>
@@ -4274,7 +4410,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>3307000</v>
@@ -4294,7 +4430,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>241861000</v>
@@ -4314,19 +4450,19 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4334,7 +4470,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>302485000</v>
@@ -4354,7 +4490,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>27236000</v>
@@ -4374,7 +4510,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>15157000</v>
@@ -4383,7 +4519,7 @@
         <v>17468000</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1">
         <v>57682000</v>
@@ -4394,7 +4530,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1">
         <v>7305000</v>
@@ -4406,7 +4542,7 @@
         <v>6755000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4414,7 +4550,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>4306000</v>
@@ -4434,7 +4570,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>18533000</v>
@@ -4454,7 +4590,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>72537000</v>
@@ -4474,7 +4610,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1">
         <v>173040000</v>
@@ -4494,19 +4630,19 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4514,7 +4650,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1">
         <v>177000</v>
@@ -4534,7 +4670,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>129011000</v>
@@ -4554,7 +4690,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>302228000</v>
@@ -4574,19 +4710,19 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4594,7 +4730,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>374765000</v>
@@ -4614,7 +4750,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>1000</v>
@@ -4634,7 +4770,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-123467000</v>
@@ -4654,7 +4790,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-112000</v>
@@ -4674,7 +4810,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>51298000</v>
@@ -4694,7 +4830,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-72280000</v>
@@ -4714,7 +4850,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>302485000</v>
@@ -4734,19 +4870,19 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -4754,19 +4890,19 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4823,7 +4959,7 @@
         <v>71000</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-4383000</v>
@@ -4851,7 +4987,7 @@
     </row>
     <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:F80" si="18">B79/B3</f>
@@ -4919,37 +5055,37 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M83" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="N83" s="69"/>
+        <v>91</v>
+      </c>
+      <c r="M83" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="N83" s="51"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1">
         <v>9325000</v>
@@ -4957,10 +5093,10 @@
       <c r="F84" s="1">
         <v>5500000</v>
       </c>
-      <c r="M84" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="N84" s="71"/>
+      <c r="M84" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4981,10 +5117,10 @@
       <c r="F85" s="1">
         <v>7490000</v>
       </c>
-      <c r="M85" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="N85" s="25">
+      <c r="M85" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="N85" s="54">
         <f>F17</f>
         <v>8396000</v>
       </c>
@@ -5008,10 +5144,10 @@
       <c r="F86" s="1">
         <v>29947000</v>
       </c>
-      <c r="M86" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="N86" s="25">
+      <c r="M86" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="N86" s="54">
         <f>F56</f>
         <v>57682000</v>
       </c>
@@ -5035,10 +5171,10 @@
       <c r="F87" s="10">
         <v>195152000</v>
       </c>
-      <c r="M87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="N87" s="25">
+      <c r="M87" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="N87" s="54">
         <f>F61</f>
         <v>1578513000</v>
       </c>
@@ -5047,44 +5183,44 @@
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>92</v>
+      <c r="B88" s="1">
+        <v>-61254000</v>
+      </c>
+      <c r="C88" s="1">
+        <v>-84455000</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-115490000</v>
       </c>
       <c r="E88" s="1">
         <v>-97072000</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
-      </c>
-      <c r="M88" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="N88" s="33">
+        <v>-124636000</v>
+      </c>
+      <c r="M88" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="N88" s="56">
         <f>N85/(N86+N87)</f>
         <v>5.1314177099917799E-3</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89" s="15" t="e">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
         <f t="shared" ref="B89:F89" si="19">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
+        <v>0.30154182419659736</v>
+      </c>
+      <c r="C89" s="15">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
+        <v>0.33142612715492714</v>
+      </c>
+      <c r="D89" s="15">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+        <v>0.3627426345875997</v>
       </c>
       <c r="E89" s="15">
         <f t="shared" si="19"/>
@@ -5092,12 +5228,12 @@
       </c>
       <c r="F89" s="15">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="N89" s="25">
+        <v>0.21626104851107542</v>
+      </c>
+      <c r="M89" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="N89" s="54">
         <f>F27</f>
         <v>-124000</v>
       </c>
@@ -5107,13 +5243,13 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1">
         <v>-2928000</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1">
         <v>-5000000</v>
@@ -5121,10 +5257,10 @@
       <c r="F90" s="1">
         <v>-305170000</v>
       </c>
-      <c r="M90" s="24" t="s">
+      <c r="M90" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="25">
+      <c r="N90" s="54">
         <f>F25</f>
         <v>-24407000</v>
       </c>
@@ -5134,24 +5270,24 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-1696740000</v>
       </c>
-      <c r="M91" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="N91" s="33">
+      <c r="M91" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="N91" s="56">
         <f>N89/N90</f>
         <v>5.080509689843078E-3</v>
       </c>
@@ -5161,24 +5297,24 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>978388000</v>
       </c>
-      <c r="M92" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="N92" s="35">
+      <c r="M92" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="N92" s="56">
         <f>N88*(1-N91)</f>
         <v>5.1053474925935342E-3</v>
       </c>
@@ -5202,10 +5338,10 @@
       <c r="F93" s="1">
         <v>-124636000</v>
       </c>
-      <c r="M93" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="N93" s="71"/>
+      <c r="M93" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="N93" s="52"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5226,11 +5362,12 @@
       <c r="F94" s="10">
         <v>-1148158000</v>
       </c>
-      <c r="M94" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="N94" s="36">
-        <v>4.095E-2</v>
+      <c r="M94" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="N94" s="69">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5250,12 +5387,12 @@
         <v>-263352000</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M95" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="N95" s="37" cm="1">
+        <v>91</v>
+      </c>
+      <c r="M95" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="N95" s="58" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
         <v>2.359</v>
       </c>
@@ -5277,12 +5414,12 @@
         <v>724384000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M96" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="N96" s="36">
+        <v>91</v>
+      </c>
+      <c r="M96" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="N96" s="57">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5291,13 +5428,13 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1">
         <v>-350000000</v>
@@ -5305,12 +5442,12 @@
       <c r="F97" s="1">
         <v>-600000000</v>
       </c>
-      <c r="M97" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="N97" s="35">
+      <c r="M97" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="N97" s="56">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.14250495000000002</v>
+        <v>0.14499192</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5318,24 +5455,24 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M98" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="N98" s="71"/>
+        <v>91</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="N98" s="52"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5356,10 +5493,10 @@
       <c r="F99" s="1">
         <v>-10363000</v>
       </c>
-      <c r="M99" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="N99" s="25">
+      <c r="M99" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="N99" s="54">
         <f>N86+N87</f>
         <v>1636195000</v>
       </c>
@@ -5383,10 +5520,10 @@
       <c r="F100" s="10">
         <v>-610363000</v>
       </c>
-      <c r="M100" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="N100" s="33">
+      <c r="M100" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="N100" s="56">
         <f>N99/N103</f>
         <v>0.32060656203652671</v>
       </c>
@@ -5396,24 +5533,24 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>-249000</v>
       </c>
-      <c r="M101" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="N101" s="38" cm="1">
+      <c r="M101" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="N101" s="59" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
         <v>3467240780</v>
       </c>
@@ -5437,10 +5574,10 @@
       <c r="F102" s="10">
         <v>-1563618000</v>
       </c>
-      <c r="M102" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="N102" s="33">
+      <c r="M102" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="N102" s="56">
         <f>N101/N103</f>
         <v>0.67939343796347329</v>
       </c>
@@ -5464,10 +5601,10 @@
       <c r="F103" s="1">
         <v>1715425000</v>
       </c>
-      <c r="M103" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="N103" s="39">
+      <c r="M103" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="N103" s="60">
         <f>N99+N101</f>
         <v>5103435780</v>
       </c>
@@ -5491,246 +5628,265 @@
       <c r="F104" s="11">
         <v>151807000</v>
       </c>
-      <c r="M104" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="N104" s="71"/>
+      <c r="M104" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="N104" s="52"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>160</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:E105" si="20">(B22*(1-0.2))+B77+B88-B81</f>
+        <v>-27974200</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="20"/>
+        <v>-31987000</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="20"/>
+        <v>-22944800</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="20"/>
+        <v>-9655800</v>
+      </c>
+      <c r="F105" s="1">
+        <f>(F22*(1-0.2))+F77+F88-F81</f>
+        <v>-29189200</v>
+      </c>
+      <c r="G105" s="29">
+        <f>F105*(1+$AM$106)</f>
+        <v>-29189200</v>
+      </c>
+      <c r="H105" s="29">
+        <f t="shared" ref="H105:K105" si="21">G105*(1+$AM$106)</f>
+        <v>-29189200</v>
+      </c>
+      <c r="I105" s="29">
+        <f t="shared" si="21"/>
+        <v>-29189200</v>
+      </c>
+      <c r="J105" s="29">
+        <f t="shared" si="21"/>
+        <v>-29189200</v>
+      </c>
+      <c r="K105" s="29">
+        <f t="shared" si="21"/>
+        <v>-29189200</v>
+      </c>
+      <c r="L105" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="M105" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="N105" s="62">
+        <f>(N100*N92)+(N102*N97)</f>
+        <v>0.10014336691332711</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
         <v>0.91403433476394857</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
         <v>0.29040069959862769</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
         <v>-1.4173038159449503</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
         <v>2.12034145325838</v>
       </c>
-      <c r="G105" s="63">
-        <v>146300000</v>
-      </c>
-      <c r="H105" s="63">
-        <v>187100000</v>
-      </c>
-      <c r="I105" s="63">
-        <v>218800000</v>
-      </c>
-      <c r="J105" s="63">
-        <v>258600000</v>
-      </c>
-      <c r="K105" s="63">
-        <v>302300000</v>
-      </c>
-      <c r="L105" s="15"/>
-      <c r="M105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="N105" s="27">
-        <f>(N100*N92)+(N102*N97)</f>
-        <v>9.8453735814915094E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="G106" s="45">
+        <v>143600000</v>
+      </c>
+      <c r="H106" s="45">
+        <v>186300000</v>
+      </c>
+      <c r="I106" s="45">
+        <v>218000000</v>
+      </c>
+      <c r="J106" s="45">
+        <v>229000000</v>
+      </c>
+      <c r="K106" s="45">
+        <v>260100000</v>
+      </c>
+      <c r="L106" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="M106" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="N106" s="64">
+        <f>(SUM(G4:K4)/5)</f>
+        <v>0.17948370594288865</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1">
         <v>-23300000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-44597000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>-57548000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>24015000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>74935000</v>
       </c>
-      <c r="G106" s="40">
-        <f>F106*(1+$N$106)</f>
-        <v>88584259.409381598</v>
-      </c>
-      <c r="H106" s="40">
-        <f t="shared" ref="H106:K106" si="20">G106*(1+$N$106)</f>
-        <v>104719703.94486704</v>
-      </c>
-      <c r="I106" s="40">
-        <f t="shared" si="20"/>
-        <v>123794187.22260284</v>
-      </c>
-      <c r="J106" s="40">
-        <f t="shared" si="20"/>
-        <v>146343049.2333436</v>
-      </c>
-      <c r="K106" s="40">
-        <f t="shared" si="20"/>
-        <v>172999141.06954578</v>
-      </c>
-      <c r="L106" s="41" t="s">
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="72">
+        <f>K106*(1+N107)/(N108-N107)</f>
+        <v>3547917946.0711193</v>
+      </c>
+      <c r="L107" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="M107" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="M106" s="42" t="s">
+      <c r="N107" s="66">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G108" s="72">
+        <f t="shared" ref="G108:I108" si="22">G107+G106</f>
+        <v>143600000</v>
+      </c>
+      <c r="H108" s="72">
+        <f t="shared" si="22"/>
+        <v>186300000</v>
+      </c>
+      <c r="I108" s="72">
+        <f t="shared" si="22"/>
+        <v>218000000</v>
+      </c>
+      <c r="J108" s="72">
+        <f>J107+J106</f>
+        <v>229000000</v>
+      </c>
+      <c r="K108" s="72">
+        <f>K107+K106</f>
+        <v>3808017946.0711193</v>
+      </c>
+      <c r="L108" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="M108" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="N106" s="43">
-        <f>(SUM(G4:K4)/5)</f>
-        <v>0.18214798704719554</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="44">
-        <f>K105*(1+N107)/(N108-N107)</f>
-        <v>4218403551.0564475</v>
-      </c>
-      <c r="L107" s="45" t="s">
+      <c r="N108" s="64">
+        <f>N105</f>
+        <v>0.10014336691332711</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G109" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="M107" s="46" t="s">
+      <c r="H109" s="49"/>
+    </row>
+    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G110" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="N107" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="44">
-        <f t="shared" ref="G108:I108" si="21">G107+G106</f>
-        <v>88584259.409381598</v>
-      </c>
-      <c r="H108" s="44">
-        <f t="shared" si="21"/>
-        <v>104719703.94486704</v>
-      </c>
-      <c r="I108" s="44">
-        <f t="shared" si="21"/>
-        <v>123794187.22260284</v>
-      </c>
-      <c r="J108" s="44">
-        <f>J107+J106</f>
-        <v>146343049.2333436</v>
-      </c>
-      <c r="K108" s="44">
-        <f>K107+K105</f>
-        <v>4520703551.056448</v>
-      </c>
-      <c r="L108" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="M108" s="48" t="s">
+      <c r="H110" s="28">
+        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
+        <v>2967445715.1483188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G111" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="N108" s="49">
-        <f>N105</f>
-        <v>9.8453735814915094E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="H109" s="67"/>
-    </row>
-    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="H110" s="38">
-        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>3188167186.7069249</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="H111" s="38">
+      <c r="H111" s="28">
         <f>F40</f>
         <v>864234000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="H112" s="38">
+      <c r="G112" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H112" s="28">
         <f>N99</f>
         <v>1636195000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="H113" s="38">
+      <c r="G113" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H113" s="28">
         <f>H110+H111-H112</f>
-        <v>2416206186.7069249</v>
+        <v>2195484715.1483188</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="H114" s="51" cm="1">
+      <c r="G114" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H114" s="33" cm="1">
         <f t="array" ref="H114">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>88812520</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="H115" s="53">
+      <c r="G115" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="H115" s="35">
         <f>H113/H114</f>
-        <v>27.205693371913384</v>
+        <v>24.72044161283025</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="H116" s="54" cm="1">
+      <c r="G116" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H116" s="36" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
         <v>39.04</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="H117" s="56">
+      <c r="G117" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="H117" s="38">
         <f>H115/H116-1</f>
-        <v>-0.30313285420303826</v>
+        <v>-0.36679196688447102</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="H118" s="57" t="str">
+      <c r="G118" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="H118" s="39" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5757,8 +5913,9 @@
     <hyperlink ref="F36" r:id="rId10" tooltip="https://www.sec.gov/Archives/edgar/data/1582961/000158296123000009/0001582961-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1582961/000158296123000009/0001582961-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G1" r:id="rId12" display="https://finbox.com/NYSE:DOCN/explorer/revenue_proj" xr:uid="{420E23AD-CCD6-3E42-8058-B00129E17D0C}"/>
+    <hyperlink ref="L106" r:id="rId13" xr:uid="{B4EA778D-1CD3-CE4A-981F-A8D156785BF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>